--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A8B07B-AF73-4214-B383-5B8F551ED6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C448A7D-AFCE-41D3-BF79-258FFEDAF1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1489,7 +1489,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2310,7 +2310,7 @@
         <v>6</v>
       </c>
       <c r="K24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3188,7 +3188,7 @@
         <v>6</v>
       </c>
       <c r="J49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="9" t="s">
         <v>6</v>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C448A7D-AFCE-41D3-BF79-258FFEDAF1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64414B6D-12AB-433C-9E31-42825E2C25E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="95">
   <si>
     <t>Year</t>
   </si>
@@ -1486,10 +1486,10 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1978,9 +1978,11 @@
         <v>2015</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
@@ -1990,13 +1992,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>6</v>
@@ -2011,9 +2013,11 @@
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D16" s="8" t="s">
         <v>52</v>
       </c>
@@ -2023,7 +2027,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>6</v>
@@ -2044,11 +2048,9 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
@@ -2058,7 +2060,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>6</v>
@@ -2079,11 +2081,9 @@
         <v>2015</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
         <v>52</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>6</v>
@@ -2722,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>6</v>
@@ -3282,14 +3282,14 @@
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="9">
-        <v>0</v>
+      <c r="J52" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>6</v>
@@ -3340,13 +3340,13 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
-    <cfRule type="containsText" dxfId="62" priority="155" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39 J14:K15 J17:K17">
+    <cfRule type="containsText" dxfId="62" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J14:K15 J17:K17 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39">
-    <cfRule type="colorScale" priority="156">
+  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39 J14:K15 J17:K17">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3358,11 +3358,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="61" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="149" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="60" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3374,12 +3391,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="60" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="K8">
+    <cfRule type="containsText" dxfId="59" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3391,12 +3408,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="59" priority="143" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="58" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3408,12 +3425,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="58" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="57" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3425,12 +3442,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="57" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="56" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3442,12 +3459,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="56" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="55" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3459,12 +3476,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="55" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="54" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3476,12 +3493,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="54" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="53" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3493,13 +3510,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="52" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="53" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="colorScale" priority="132">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3511,28 +3545,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="52" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="51" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3544,12 +3561,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="50" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="49" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3561,12 +3578,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="49" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="48" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3578,12 +3595,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="48" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="47" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3595,12 +3612,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="47" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="46" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3612,12 +3629,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="46" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="45" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3629,12 +3646,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="45" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="44" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3646,12 +3663,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="44" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="43" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3663,12 +3680,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="43" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="42" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3680,12 +3697,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="42" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="containsText" dxfId="41" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3697,12 +3714,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="41" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="40" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3714,12 +3731,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="40" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="39" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3731,12 +3748,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="39" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="38" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3748,12 +3765,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="38" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="K30">
+    <cfRule type="containsText" dxfId="37" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3765,12 +3782,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="37" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="36" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3782,12 +3799,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="36" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="K32">
+    <cfRule type="containsText" dxfId="35" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3799,12 +3816,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="35" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="34" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3816,12 +3833,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="34" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="K34">
+    <cfRule type="containsText" dxfId="33" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3833,12 +3850,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="33" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="32" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3850,12 +3867,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="32" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="J38:K38">
+    <cfRule type="containsText" dxfId="31" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3867,29 +3884,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="31" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="30" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="containsText" dxfId="29" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3901,12 +3918,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="29" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
+  <conditionalFormatting sqref="J43">
+    <cfRule type="containsText" dxfId="28" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3918,12 +3935,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="28" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
+  <conditionalFormatting sqref="K43">
+    <cfRule type="containsText" dxfId="27" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3935,12 +3952,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="27" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
+  <conditionalFormatting sqref="J41">
+    <cfRule type="containsText" dxfId="26" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3952,30 +3969,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="26" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="25" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3987,11 +3987,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="24" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="containsText" dxfId="23" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4003,12 +4020,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="23" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
+  <conditionalFormatting sqref="J44">
+    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4020,29 +4037,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="21" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4054,12 +4071,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="20" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
+  <conditionalFormatting sqref="K45">
+    <cfRule type="containsText" dxfId="19" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4071,12 +4088,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="19" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="J46">
+    <cfRule type="containsText" dxfId="18" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4088,29 +4105,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="18" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="17" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsText" dxfId="16" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4122,12 +4139,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="16" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="15" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4139,12 +4156,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="15" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="14" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4156,12 +4173,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
+  <conditionalFormatting sqref="K46">
+    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4173,30 +4190,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="13" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4208,11 +4208,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4224,29 +4241,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4258,12 +4275,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="J51">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4275,13 +4292,47 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4293,62 +4344,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64414B6D-12AB-433C-9E31-42825E2C25E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC8565-9233-4006-AABF-5D32221B27BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="99">
   <si>
     <t>Year</t>
   </si>
@@ -123,12 +123,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
   </si>
   <si>
     <t>Republic 1974</t>
-  </si>
-  <si>
-    <t>Malta's Constitution</t>
   </si>
   <si>
     <t>1887 Majority Representation</t>
@@ -307,12 +298,6 @@
     <t>20.000</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
-    <t>Subtype_4</t>
-  </si>
-  <si>
     <t>Rev: new map of Europe</t>
   </si>
   <si>
@@ -395,13 +380,40 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Maltese constitutional history</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol_B</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol_A</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -462,6 +474,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -613,7 +639,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -668,6 +694,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,13 +727,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="64">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -710,6 +745,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1489,17 +1532,18 @@
       <pane xSplit="12" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="12" customWidth="1"/>
-    <col min="5" max="6" width="24.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="28" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" style="12" customWidth="1"/>
     <col min="8" max="9" width="12.453125" style="12" customWidth="1"/>
     <col min="10" max="11" width="3.81640625" style="12" customWidth="1"/>
     <col min="12" max="12" width="13.7265625" style="12" customWidth="1"/>
@@ -1508,58 +1552,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -1568,30 +1612,32 @@
         <v>2009</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>95</v>
+      </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="9">
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L3" s="10" t="str">
         <f>IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1603,28 +1649,28 @@
         <v>2010</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L4" s="10" t="str">
         <f t="shared" ref="L4:L33" si="0">IF(OR(AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
@@ -1636,30 +1682,30 @@
         <v>2011</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" s="9">
         <v>0</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1671,32 +1717,32 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1708,30 +1754,30 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" s="9">
         <v>0</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1744,30 +1790,30 @@
         <v>2012</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1780,28 +1826,30 @@
         <v>2012</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" s="9">
         <v>2</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1813,28 +1861,28 @@
         <v>2013</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J10" s="9">
         <v>1</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1846,28 +1894,28 @@
         <v>2013</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1879,28 +1927,28 @@
         <v>2014</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" s="9">
         <v>1</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1912,28 +1960,28 @@
         <v>2014</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L13" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1945,28 +1993,28 @@
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1978,30 +2026,30 @@
         <v>2015</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="9">
         <v>1</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L15" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2013,30 +2061,30 @@
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2048,28 +2096,28 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L17" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2081,28 +2129,28 @@
         <v>2015</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L18" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2114,28 +2162,30 @@
         <v>2015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>97</v>
+      </c>
       <c r="D19" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J19" s="9">
         <v>1</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L19" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2147,28 +2197,30 @@
         <v>2015</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>97</v>
+      </c>
       <c r="D20" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L20" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2180,27 +2232,27 @@
         <v>2016</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K21" s="9">
         <v>1</v>
@@ -2215,30 +2267,30 @@
         <v>2016</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L22" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2250,32 +2302,32 @@
         <v>2016</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L23" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2287,27 +2339,27 @@
         <v>2016</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K24" s="9">
         <v>1</v>
@@ -2322,30 +2374,30 @@
         <v>2016</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2357,27 +2409,27 @@
         <v>2017</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K26" s="9">
         <v>1</v>
@@ -2392,30 +2444,30 @@
         <v>2017</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2427,32 +2479,32 @@
         <v>2017</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L28" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2464,27 +2516,27 @@
         <v>2017</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K29" s="9">
         <v>1</v>
@@ -2499,32 +2551,32 @@
         <v>2017</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L30" s="10" t="str">
         <f t="shared" ref="L30" si="1">IF(OR(AND(J30&gt;1,J30&lt;&gt;"-"),AND(K30&gt;1,K30&lt;&gt;"-")),"Can exchange","")</f>
@@ -2536,27 +2588,27 @@
         <v>2018</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K31" s="9">
         <v>1</v>
@@ -2571,30 +2623,30 @@
         <v>2018</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L32" s="10"/>
     </row>
@@ -2603,27 +2655,27 @@
         <v>2018</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K33" s="9">
         <v>1</v>
@@ -2638,30 +2690,30 @@
         <v>2018</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L34" s="10"/>
     </row>
@@ -2670,27 +2722,27 @@
         <v>2019</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K35" s="9">
         <v>2</v>
@@ -2705,29 +2757,29 @@
         <v>2019</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="9">
+        <v>4</v>
+      </c>
+      <c r="K36" s="22">
         <v>1</v>
       </c>
       <c r="L36" s="10" t="str">
@@ -2740,32 +2792,32 @@
         <v>2019</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L37" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2777,27 +2829,27 @@
         <v>2019</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K38" s="9">
         <v>1</v>
@@ -2812,32 +2864,32 @@
         <v>2019</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L39" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2849,27 +2901,27 @@
         <v>2020</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K40" s="9">
         <v>1</v>
@@ -2884,32 +2936,32 @@
         <v>2020</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L41" s="10" t="str">
         <f t="shared" ref="L41:L42" si="4">IF(OR(AND(J41&gt;1,J41&lt;&gt;"-"),AND(K41&gt;1,K41&lt;&gt;"-")),"Can exchange","")</f>
@@ -2921,30 +2973,30 @@
         <v>2020</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L42" s="10" t="str">
         <f t="shared" si="4"/>
@@ -2956,27 +3008,27 @@
         <v>2020</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K43" s="9">
         <v>1</v>
@@ -2991,32 +3043,32 @@
         <v>2020</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L44" s="10" t="str">
         <f t="shared" ref="L44" si="5">IF(OR(AND(J44&gt;1,J44&lt;&gt;"-"),AND(K44&gt;1,K44&lt;&gt;"-")),"Can exchange","")</f>
@@ -3028,30 +3080,30 @@
         <v>2021</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="J45" s="23">
+        <v>0</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L45" s="10" t="str">
         <f t="shared" ref="L45" si="6">IF(OR(AND(J45&gt;1,J45&lt;&gt;"-"),AND(K45&gt;1,K45&lt;&gt;"-")),"Can exchange","")</f>
@@ -3063,27 +3115,27 @@
         <v>2021</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K46" s="9">
         <v>1</v>
@@ -3098,32 +3150,32 @@
         <v>2021</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L47" s="10" t="str">
         <f t="shared" ref="L47:L49" si="8">IF(OR(AND(J47&gt;1,J47&lt;&gt;"-"),AND(K47&gt;1,K47&lt;&gt;"-")),"Can exchange","")</f>
@@ -3135,30 +3187,30 @@
         <v>2021</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L48" s="10" t="str">
         <f t="shared" si="8"/>
@@ -3170,28 +3222,30 @@
         <v>2022</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="D49" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J49" s="9">
         <v>1</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L49" s="10" t="str">
         <f t="shared" si="8"/>
@@ -3203,30 +3257,30 @@
         <v>2022</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J50" s="9">
         <v>1</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L50" s="10" t="str">
         <f t="shared" ref="L50" si="9">IF(OR(AND(J50&gt;1,J50&lt;&gt;"-"),AND(K50&gt;1,K50&lt;&gt;"-")),"Can exchange","")</f>
@@ -3238,28 +3292,28 @@
         <v>2022</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="J51" s="23">
+        <v>0</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L51" s="10" t="str">
         <f t="shared" ref="L51" si="10">IF(OR(AND(J51&gt;1,J51&lt;&gt;"-"),AND(K51&gt;1,K51&lt;&gt;"-")),"Can exchange","")</f>
@@ -3271,28 +3325,28 @@
         <v>2023</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="J52" s="23">
+        <v>0</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L52" s="10" t="str">
         <f t="shared" ref="L52:L53" si="11">IF(OR(AND(J52&gt;1,J52&lt;&gt;"-"),AND(K52&gt;1,K52&lt;&gt;"-")),"Can exchange","")</f>
@@ -3304,28 +3358,28 @@
         <v>2023</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="J53" s="23">
+        <v>0</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L53" s="10" t="str">
         <f t="shared" si="11"/>
@@ -3340,12 +3394,46 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39 J14:K15 J17:K17">
-    <cfRule type="containsText" dxfId="62" priority="157" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+    <cfRule type="containsText" dxfId="63" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K37 J39:K39 J14:K15 J17:K17">
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="62" priority="159" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="61" priority="157" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3357,12 +3445,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="61" priority="149" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="K8">
+    <cfRule type="containsText" dxfId="60" priority="155" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="59" priority="153" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="58" priority="151" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="57" priority="149" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3374,12 +3513,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="60" priority="147" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="56" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3391,12 +3530,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="59" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="55" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3408,12 +3547,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="58" priority="143" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="54" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3425,12 +3564,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="57" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="53" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3442,12 +3581,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="56" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="52" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3459,12 +3598,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="55" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="51" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3476,12 +3615,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="54" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="50" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3493,12 +3632,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="53" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="49" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3510,12 +3649,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="52" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="48" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3527,12 +3666,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="51" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="47" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3544,12 +3683,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="50" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="46" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3561,12 +3700,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="49" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="45" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3578,12 +3717,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="48" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="44" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3595,12 +3734,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="47" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="43" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3612,12 +3751,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="46" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="containsText" dxfId="42" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3629,12 +3768,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="45" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="41" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3646,12 +3785,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="44" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="40" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3663,12 +3802,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="43" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="39" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3680,12 +3819,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="42" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="K30">
+    <cfRule type="containsText" dxfId="38" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3697,12 +3836,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="41" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="37" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3714,12 +3853,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="40" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="K32">
+    <cfRule type="containsText" dxfId="36" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3731,12 +3870,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="39" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="35" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3748,12 +3887,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="38" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="K34">
+    <cfRule type="containsText" dxfId="34" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3765,12 +3904,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="37" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="33" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3782,12 +3921,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="36" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="J38:K38">
+    <cfRule type="containsText" dxfId="32" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3799,46 +3938,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="35" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="34" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="33" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="J40">
+    <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3850,12 +3955,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="32" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="K40">
+    <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3867,12 +3972,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="31" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
+  <conditionalFormatting sqref="J43">
+    <cfRule type="containsText" dxfId="29" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3884,29 +3989,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="30" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="29" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
+  <conditionalFormatting sqref="K43">
+    <cfRule type="containsText" dxfId="28" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="containsText" dxfId="27" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
+    <cfRule type="containsText" dxfId="26" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3918,29 +4040,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="28" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="27" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
+  <conditionalFormatting sqref="K41">
+    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3952,12 +4057,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="26" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
+  <conditionalFormatting sqref="K42">
+    <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3969,46 +4074,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="24" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="23" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
+  <conditionalFormatting sqref="J44">
+    <cfRule type="containsText" dxfId="23" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
+    <cfRule type="containsText" dxfId="22" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
+    <cfRule type="containsText" dxfId="21" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4020,12 +4125,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
+  <conditionalFormatting sqref="J46">
+    <cfRule type="containsText" dxfId="20" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4037,12 +4142,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="19" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4054,301 +4159,267 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsText" dxfId="18" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="17" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="16" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="containsText" dxfId="15" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="containsText" dxfId="14" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="19" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="18" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="17" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="16" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="15" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="14" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4371,7 +4442,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4383,13 +4454,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4397,10 +4468,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4408,10 +4479,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4419,10 +4490,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4430,10 +4501,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4441,10 +4512,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4452,10 +4523,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC8565-9233-4006-AABF-5D32221B27BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB637AE9-794E-4643-A373-41038CCB85D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -700,6 +700,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,9 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1532,7 +1532,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1552,32 +1552,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="26" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="29"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
         <v>91</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="24" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1828,7 +1828,7 @@
       <c r="B9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2114,7 +2114,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>4</v>
@@ -2164,7 +2164,7 @@
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="24" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2199,7 +2199,7 @@
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="24" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -3224,7 +3224,7 @@
       <c r="B49" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D49" s="8" t="s">
@@ -3399,7 +3399,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB637AE9-794E-4643-A373-41038CCB85D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4ACC81-2E12-4330-A7B3-27669FA98D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="99">
   <si>
     <t>Year</t>
   </si>
@@ -736,7 +736,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1255,9 +1271,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1526,13 +1542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3349,7 +3365,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="10" t="str">
-        <f t="shared" ref="L52:L53" si="11">IF(OR(AND(J52&gt;1,J52&lt;&gt;"-"),AND(K52&gt;1,K52&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L52:L54" si="11">IF(OR(AND(J52&gt;1,J52&lt;&gt;"-"),AND(K52&gt;1,K52&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3382,6 +3398,45 @@
         <v>4</v>
       </c>
       <c r="L53" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="10" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -3395,12 +3450,12 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
-    <cfRule type="containsText" dxfId="63" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
-    <cfRule type="colorScale" priority="168">
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+    <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3412,11 +3467,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="64" priority="163" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="63" priority="161" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="containsText" dxfId="62" priority="159" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3428,12 +3517,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J8">
     <cfRule type="containsText" dxfId="61" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3445,12 +3534,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="K11">
     <cfRule type="containsText" dxfId="60" priority="155" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3462,12 +3551,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J11">
     <cfRule type="containsText" dxfId="59" priority="153" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3479,12 +3568,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="K13">
     <cfRule type="containsText" dxfId="58" priority="151" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3496,12 +3585,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J13">
     <cfRule type="containsText" dxfId="57" priority="149" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3513,12 +3602,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="K18">
     <cfRule type="containsText" dxfId="56" priority="147" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3530,12 +3619,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J18">
     <cfRule type="containsText" dxfId="55" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3547,12 +3636,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+  <conditionalFormatting sqref="K16">
     <cfRule type="containsText" dxfId="54" priority="143" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3564,12 +3653,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J16">
     <cfRule type="containsText" dxfId="53" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3581,12 +3670,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K20">
     <cfRule type="containsText" dxfId="52" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3598,12 +3687,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J20">
     <cfRule type="containsText" dxfId="51" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3615,12 +3704,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="K22">
     <cfRule type="containsText" dxfId="50" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3632,12 +3721,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J22">
     <cfRule type="containsText" dxfId="49" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3649,12 +3738,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="K23">
     <cfRule type="containsText" dxfId="48" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3666,12 +3755,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J23">
     <cfRule type="containsText" dxfId="47" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3683,12 +3772,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="K25">
     <cfRule type="containsText" dxfId="46" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3700,12 +3789,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J25">
     <cfRule type="containsText" dxfId="45" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3717,12 +3806,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="44" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3734,12 +3823,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="J27">
     <cfRule type="containsText" dxfId="43" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3751,12 +3840,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="42" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3768,12 +3857,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J28">
     <cfRule type="containsText" dxfId="41" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3785,12 +3874,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="K30">
     <cfRule type="containsText" dxfId="40" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3802,12 +3891,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="J30">
     <cfRule type="containsText" dxfId="39" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3819,12 +3908,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="K32">
     <cfRule type="containsText" dxfId="38" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3836,12 +3925,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="J32">
     <cfRule type="containsText" dxfId="37" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3853,12 +3942,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="K34">
     <cfRule type="containsText" dxfId="36" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3870,12 +3959,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="J34">
     <cfRule type="containsText" dxfId="35" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3887,12 +3976,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="containsText" dxfId="34" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3904,46 +3993,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="33" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="32" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J40">
+    <cfRule type="containsText" dxfId="33" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="containsText" dxfId="32" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
     <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3955,12 +4044,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
+  <conditionalFormatting sqref="K43">
     <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3972,12 +4061,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
+  <conditionalFormatting sqref="J41">
     <cfRule type="containsText" dxfId="29" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3989,29 +4078,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="28" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="27" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
+  <conditionalFormatting sqref="J42">
+    <cfRule type="containsText" dxfId="28" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4023,12 +4095,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="26" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+  <conditionalFormatting sqref="K41">
+    <cfRule type="containsText" dxfId="27" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4040,12 +4112,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
+  <conditionalFormatting sqref="K42">
+    <cfRule type="containsText" dxfId="26" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4057,29 +4146,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="23" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
+  <conditionalFormatting sqref="K44">
+    <cfRule type="containsText" dxfId="24" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4091,12 +4163,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="22" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
+  <conditionalFormatting sqref="K45">
+    <cfRule type="containsText" dxfId="23" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4108,29 +4180,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="21" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="20" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="21" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4142,12 +4214,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsText" dxfId="20" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
     <cfRule type="containsText" dxfId="19" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4159,12 +4248,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
+  <conditionalFormatting sqref="K48">
     <cfRule type="containsText" dxfId="18" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4176,12 +4265,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="K46">
     <cfRule type="containsText" dxfId="17" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4193,47 +4282,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="16" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="15" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="14" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4245,11 +4300,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4261,30 +4333,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4296,11 +4351,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
     <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4312,29 +4401,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4346,12 +4418,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="J51">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4363,12 +4452,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
+  <conditionalFormatting sqref="J53">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4380,12 +4469,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
+  <conditionalFormatting sqref="J45">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4397,12 +4486,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
+  <conditionalFormatting sqref="J54">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J54))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4414,12 +4503,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
+  <conditionalFormatting sqref="K54">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K54))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4ACC81-2E12-4330-A7B3-27669FA98D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A58A47B-E9DE-48A4-ADAB-5AC894843260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -738,22 +738,6 @@
   </cellStyles>
   <dxfs count="66">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -761,6 +745,22 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1271,9 +1271,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1545,10 +1545,10 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1718,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>4</v>
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>4</v>
@@ -3454,7 +3454,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4487,7 +4487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4504,7 +4504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K54))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A58A47B-E9DE-48A4-ADAB-5AC894843260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D058BC-B45A-4AD1-886F-19086819DC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,10 +639,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,6 +737,510 @@
   </cellStyles>
   <dxfs count="66">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -745,510 +1248,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1271,9 +1270,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="64" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1542,1901 +1541,1898 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="39.1796875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="28" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" style="12" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" style="12" customWidth="1"/>
-    <col min="10" max="11" width="3.81640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="28" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" style="11" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" style="11" customWidth="1"/>
+    <col min="10" max="11" width="3.81640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="27" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="4" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>2009</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8">
         <v>1</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="10" t="str">
+      <c r="K3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="9" t="str">
         <f>IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>2010</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="10" t="str">
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="9" t="str">
         <f t="shared" ref="L4:L33" si="0">IF(OR(AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>2011</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="8">
         <v>1</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="10" t="str">
+      <c r="K5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>2011</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="10" t="str">
+      <c r="I6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>2012</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="I7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="10" t="str">
+      <c r="K7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>2012</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="14" t="s">
+      <c r="E8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="10" t="str">
+      <c r="I8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>2012</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="E9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="I9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8">
         <v>2</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="10" t="str">
+      <c r="K9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>2013</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="E10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="I10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="10" t="str">
+      <c r="K10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>2013</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="14" t="s">
+      <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="10" t="str">
+      <c r="I11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>2014</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="E12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="I12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="10" t="str">
+      <c r="K12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>2014</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="14" t="s">
+      <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="10" t="str">
+      <c r="I13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>2014</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
+      <c r="E14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="8">
         <v>1</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="10" t="str">
+      <c r="K14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>2015</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
+      <c r="E15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="I15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="8">
         <v>1</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="10" t="str">
+      <c r="K15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>2015</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="14" t="s">
+      <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="10" t="str">
+      <c r="I16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>2015</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="I17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="10" t="str">
+      <c r="K17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>2015</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="14" t="s">
+      <c r="E18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="10" t="str">
+      <c r="I18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>2015</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
+      <c r="E19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="I19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="8">
         <v>1</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="10" t="str">
+      <c r="K19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>2015</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="14" t="s">
+      <c r="E20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="10" t="str">
+      <c r="I20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>2016</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="9">
+      <c r="J21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="8">
         <v>1</v>
       </c>
-      <c r="L21" s="10" t="str">
+      <c r="L21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>2016</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="14" t="s">
+      <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="10" t="str">
+      <c r="I22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>2016</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="14" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="10" t="str">
+      <c r="I23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>2016</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="E24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="J24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="8">
         <v>1</v>
       </c>
-      <c r="L24" s="10" t="str">
+      <c r="L24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>2016</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="14" t="s">
+      <c r="E25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="10" t="str">
+      <c r="J25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>2017</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="E26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="J26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="8">
         <v>1</v>
       </c>
-      <c r="L26" s="10" t="str">
+      <c r="L26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>2017</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="14" t="s">
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="10" t="str">
+      <c r="J27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>2017</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="14" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28" s="10" t="str">
+      <c r="J28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>2017</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="8" t="s">
+      <c r="E29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="9">
+      <c r="J29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="8">
         <v>1</v>
       </c>
-      <c r="L29" s="10" t="str">
+      <c r="L29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>2017</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="14" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="10" t="str">
+      <c r="J30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="9" t="str">
         <f t="shared" ref="L30" si="1">IF(OR(AND(J30&gt;1,J30&lt;&gt;"-"),AND(K30&gt;1,K30&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>2018</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="E31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="9">
+      <c r="J31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="8">
         <v>1</v>
       </c>
-      <c r="L31" s="10" t="str">
+      <c r="L31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>2018</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="14" t="s">
+      <c r="E32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="10"/>
+      <c r="J32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>2018</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="8" t="s">
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="9">
+      <c r="J33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="8">
         <v>1</v>
       </c>
-      <c r="L33" s="10" t="str">
+      <c r="L33" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>2018</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="14" t="s">
+      <c r="E34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L34" s="10"/>
+      <c r="J34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>2019</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="8" t="s">
+      <c r="E35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="9">
+      <c r="J35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="8">
         <v>2</v>
       </c>
-      <c r="L35" s="10" t="str">
+      <c r="L35" s="9" t="str">
         <f t="shared" ref="L35:L39" si="2">IF(OR(AND(J35&gt;1,J35&lt;&gt;"-"),AND(K35&gt;1,K35&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>2019</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="14" t="s">
+      <c r="E36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="22">
+      <c r="J36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="21">
         <v>1</v>
       </c>
-      <c r="L36" s="10" t="str">
+      <c r="L36" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>2019</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="14" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L37" s="10" t="str">
+      <c r="J37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>2019</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="8" t="s">
+      <c r="E38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K38" s="9">
+      <c r="J38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="8">
         <v>1</v>
       </c>
-      <c r="L38" s="10" t="str">
+      <c r="L38" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>2019</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="14" t="s">
+      <c r="G39" s="7"/>
+      <c r="H39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L39" s="10" t="str">
+      <c r="J39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L39" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>2020</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="8" t="s">
+      <c r="E40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="9">
+      <c r="J40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="8">
         <v>1</v>
       </c>
-      <c r="L40" s="10" t="str">
+      <c r="L40" s="9" t="str">
         <f t="shared" ref="L40:L43" si="3">IF(OR(AND(J40&gt;1,J40&lt;&gt;"-"),AND(K40&gt;1,K40&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>2020</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="14" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="10" t="str">
+      <c r="J41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="9" t="str">
         <f t="shared" ref="L41:L42" si="4">IF(OR(AND(J41&gt;1,J41&lt;&gt;"-"),AND(K41&gt;1,K41&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>2020</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="14" t="s">
+      <c r="E42" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="10" t="str">
+      <c r="J42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>2020</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="8" t="s">
+      <c r="E43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="9">
+      <c r="J43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="8">
         <v>1</v>
       </c>
-      <c r="L43" s="10" t="str">
+      <c r="L43" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>2020</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="8" t="s">
+      <c r="E44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="14" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="10" t="str">
+      <c r="J44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="9" t="str">
         <f t="shared" ref="L44" si="5">IF(OR(AND(J44&gt;1,J44&lt;&gt;"-"),AND(K44&gt;1,K44&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>2021</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="E45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="14" t="s">
+      <c r="G45" s="7"/>
+      <c r="H45" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
+        <v>1</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="9" t="str">
+        <f t="shared" ref="L45" si="6">IF(OR(AND(J45&gt;1,J45&lt;&gt;"-"),AND(K45&gt;1,K45&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="8">
+        <v>1</v>
+      </c>
+      <c r="L46" s="9" t="str">
+        <f t="shared" ref="L46" si="7">IF(OR(AND(J46&gt;1,J46&lt;&gt;"-"),AND(K46&gt;1,K46&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="9" t="str">
+        <f t="shared" ref="L47:L49" si="8">IF(OR(AND(J47&gt;1,J47&lt;&gt;"-"),AND(K47&gt;1,K47&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="8">
+        <v>1</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="8">
+        <v>1</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="9" t="str">
+        <f t="shared" ref="L50" si="9">IF(OR(AND(J50&gt;1,J50&lt;&gt;"-"),AND(K50&gt;1,K50&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" s="22">
+        <v>1</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" s="9" t="str">
+        <f t="shared" ref="L51" si="10">IF(OR(AND(J51&gt;1,J51&lt;&gt;"-"),AND(K51&gt;1,K51&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="22">
         <v>0</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="10" t="str">
-        <f t="shared" ref="L45" si="6">IF(OR(AND(J45&gt;1,J45&lt;&gt;"-"),AND(K45&gt;1,K45&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="K52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="9" t="str">
+        <f t="shared" ref="L52:L54" si="11">IF(OR(AND(J52&gt;1,J52&lt;&gt;"-"),AND(K52&gt;1,K52&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="9">
-        <v>1</v>
-      </c>
-      <c r="L46" s="10" t="str">
-        <f t="shared" ref="L46" si="7">IF(OR(AND(J46&gt;1,J46&lt;&gt;"-"),AND(K46&gt;1,K46&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="10" t="str">
-        <f t="shared" ref="L47:L49" si="8">IF(OR(AND(J47&gt;1,J47&lt;&gt;"-"),AND(K47&gt;1,K47&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="9">
-        <v>1</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J50" s="9">
-        <v>1</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L50" s="10" t="str">
-        <f t="shared" ref="L50" si="9">IF(OR(AND(J50&gt;1,J50&lt;&gt;"-"),AND(K50&gt;1,K50&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J51" s="23">
+      <c r="E53" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="22">
         <v>0</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L51" s="10" t="str">
-        <f t="shared" ref="L51" si="10">IF(OR(AND(J51&gt;1,J51&lt;&gt;"-"),AND(K51&gt;1,K51&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="23">
-        <v>0</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="10" t="str">
-        <f t="shared" ref="L52:L54" si="11">IF(OR(AND(J52&gt;1,J52&lt;&gt;"-"),AND(K52&gt;1,K52&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J53" s="23">
-        <v>0</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L53" s="10" t="str">
+      <c r="K53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L53" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>2024</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="10" t="str">
+      <c r="B54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -3450,11 +3446,11 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
-    <cfRule type="containsText" dxfId="65" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3467,7 +3463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="64" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3484,7 +3480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="63" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3501,7 +3497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="62" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3518,7 +3514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="61" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3535,7 +3531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="60" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3552,7 +3548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="59" priority="153" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3569,7 +3565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="58" priority="151" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3586,7 +3582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="57" priority="149" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="149" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3603,7 +3599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="56" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3620,7 +3616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="55" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3637,7 +3633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="54" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3654,7 +3650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="53" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3671,7 +3667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="52" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3688,7 +3684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="51" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3705,7 +3701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="50" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3722,7 +3718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="49" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3739,7 +3735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="48" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3756,7 +3752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="47" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3773,7 +3769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="46" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3790,7 +3786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="45" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3807,7 +3803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="44" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3824,7 +3820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="43" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3841,7 +3837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="42" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3858,7 +3854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="41" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3875,7 +3871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="40" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3892,7 +3888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="39" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3909,7 +3905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="38" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3926,7 +3922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="37" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3943,7 +3939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="36" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3960,7 +3956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="35" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3977,7 +3973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="34" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3994,7 +3990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="33" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4011,7 +4007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="32" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4028,7 +4024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4045,7 +4041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4062,7 +4058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="29" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4079,7 +4075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="28" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4096,7 +4092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="27" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4113,7 +4109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="26" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4130,7 +4126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4147,7 +4143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="24" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4164,7 +4160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="23" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4181,7 +4177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="22" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4198,7 +4194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="21" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4215,7 +4211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="20" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4232,7 +4228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="19" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4249,7 +4245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="18" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4266,7 +4262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="17" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4283,7 +4279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="16" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4300,7 +4296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4317,7 +4313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4334,7 +4330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4351,7 +4347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4368,7 +4364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4385,7 +4381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4402,7 +4398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4419,7 +4415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4436,7 +4432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4453,7 +4449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4470,7 +4466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4487,7 +4483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4504,7 +4500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4542,79 +4538,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D058BC-B45A-4AD1-886F-19086819DC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766A9FBF-0FBC-4256-9F6E-1690E5EDE235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="890" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -737,510 +737,6 @@
   </cellStyles>
   <dxfs count="66">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1248,6 +744,510 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1270,9 +1270,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="64" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1547,7 +1547,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3355,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="J52" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>4</v>
@@ -3388,7 +3388,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>4</v>
@@ -3446,11 +3446,11 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
-    <cfRule type="containsText" dxfId="62" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3463,7 +3463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="61" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3480,7 +3480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="60" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3497,7 +3497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="59" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3514,7 +3514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="58" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3531,7 +3531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="57" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3548,7 +3548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="56" priority="153" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3565,7 +3565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="55" priority="151" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3582,7 +3582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="54" priority="149" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="149" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3599,7 +3599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="53" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3616,7 +3616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="52" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3633,7 +3633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="51" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3650,7 +3650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="50" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3667,7 +3667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="49" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3684,7 +3684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="48" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3701,7 +3701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="47" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3718,7 +3718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="46" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3735,7 +3735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="45" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3752,7 +3752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="44" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3769,7 +3769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="43" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3786,7 +3786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="42" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3803,7 +3803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="41" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3820,7 +3820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="40" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3837,7 +3837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="39" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3854,7 +3854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="38" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3871,7 +3871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="37" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3888,7 +3888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="36" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3905,7 +3905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="35" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3922,7 +3922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="34" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3939,7 +3939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="33" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3956,7 +3956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="32" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3973,7 +3973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="31" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3990,7 +3990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="30" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4007,7 +4007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="29" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4024,7 +4024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="28" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4041,7 +4041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="27" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4058,7 +4058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="26" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4075,7 +4075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="25" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4092,7 +4092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="24" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4109,7 +4109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="23" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4126,7 +4126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="22" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4143,7 +4143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="21" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4160,7 +4160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="20" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4177,7 +4177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="19" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4194,7 +4194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="18" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4211,7 +4211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="17" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4228,7 +4228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="16" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4245,7 +4245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="15" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4262,7 +4262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="14" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4279,7 +4279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4296,7 +4296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="12" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4313,7 +4313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4330,7 +4330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4347,7 +4347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4364,7 +4364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4381,7 +4381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4398,7 +4398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4415,7 +4415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4432,7 +4432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4449,7 +4449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4466,7 +4466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4483,7 +4483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4500,7 +4500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K54))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766A9FBF-0FBC-4256-9F6E-1690E5EDE235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849BC33-B5D9-49C2-8124-D243999F65CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="890" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="103">
   <si>
     <t>Year</t>
   </si>
@@ -407,6 +407,18 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>The Maltese Honey Bee</t>
+  </si>
+  <si>
+    <t>Maltese Walled Cities - Citadel Gozo</t>
+  </si>
+  <si>
+    <t>80.000</t>
+  </si>
+  <si>
+    <t>90.000</t>
   </si>
 </sst>
 </file>
@@ -735,7 +747,39 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1270,9 +1314,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1541,13 +1585,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3402,38 +3446,65 @@
       <c r="A54" s="5">
         <v>2024</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>4</v>
+      <c r="B54" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>4</v>
+      <c r="J54" s="21">
+        <v>1</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L54" s="9" t="str">
         <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="21">
+        <v>1</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55" s="9" t="str">
+        <f t="shared" ref="L55" si="12">IF(OR(AND(J55&gt;1,J55&lt;&gt;"-"),AND(K55&gt;1,K55&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3446,11 +3517,28 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
-    <cfRule type="containsText" dxfId="65" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="68" priority="171" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3462,12 +3550,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="67" priority="169" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="containsText" dxfId="66" priority="167" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="65" priority="165" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
     <cfRule type="containsText" dxfId="64" priority="163" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3479,12 +3618,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J11">
     <cfRule type="containsText" dxfId="63" priority="161" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3496,12 +3635,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="K13">
     <cfRule type="containsText" dxfId="62" priority="159" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3513,12 +3652,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J13">
     <cfRule type="containsText" dxfId="61" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3530,12 +3669,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="K18">
     <cfRule type="containsText" dxfId="60" priority="155" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3547,12 +3686,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J18">
     <cfRule type="containsText" dxfId="59" priority="153" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3564,12 +3703,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="K16">
     <cfRule type="containsText" dxfId="58" priority="151" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3581,12 +3720,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J16">
     <cfRule type="containsText" dxfId="57" priority="149" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3598,12 +3737,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+  <conditionalFormatting sqref="K20">
     <cfRule type="containsText" dxfId="56" priority="147" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3615,12 +3754,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J20">
     <cfRule type="containsText" dxfId="55" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3632,12 +3771,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K22">
     <cfRule type="containsText" dxfId="54" priority="143" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3649,12 +3788,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J22">
     <cfRule type="containsText" dxfId="53" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3666,12 +3805,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="K23">
     <cfRule type="containsText" dxfId="52" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3683,12 +3822,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J23">
     <cfRule type="containsText" dxfId="51" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3700,12 +3839,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="K25">
     <cfRule type="containsText" dxfId="50" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3717,12 +3856,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J25">
     <cfRule type="containsText" dxfId="49" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3734,12 +3873,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="48" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3751,12 +3890,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J27">
     <cfRule type="containsText" dxfId="47" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3768,12 +3907,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="46" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3785,12 +3924,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="J28">
     <cfRule type="containsText" dxfId="45" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3802,12 +3941,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="K30">
     <cfRule type="containsText" dxfId="44" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3819,12 +3958,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J30">
     <cfRule type="containsText" dxfId="43" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3836,12 +3975,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="K32">
     <cfRule type="containsText" dxfId="42" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3853,12 +3992,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="J32">
     <cfRule type="containsText" dxfId="41" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3870,12 +4009,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="K34">
     <cfRule type="containsText" dxfId="40" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3887,12 +4026,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="J34">
     <cfRule type="containsText" dxfId="39" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3904,12 +4043,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="containsText" dxfId="38" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3921,46 +4060,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="37" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="36" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="35" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="J40">
+    <cfRule type="containsText" dxfId="37" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3972,12 +4077,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="34" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
+  <conditionalFormatting sqref="K40">
+    <cfRule type="containsText" dxfId="36" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3989,12 +4094,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+  <conditionalFormatting sqref="J43">
+    <cfRule type="containsText" dxfId="35" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="containsText" dxfId="34" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
     <cfRule type="containsText" dxfId="33" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4006,29 +4145,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="32" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
+  <conditionalFormatting sqref="J42">
+    <cfRule type="containsText" dxfId="32" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4040,29 +4162,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="29" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
+  <conditionalFormatting sqref="K41">
+    <cfRule type="containsText" dxfId="31" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4074,12 +4179,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="28" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+  <conditionalFormatting sqref="K42">
+    <cfRule type="containsText" dxfId="30" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="containsText" dxfId="29" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4091,12 +4213,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="27" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
+  <conditionalFormatting sqref="K44">
+    <cfRule type="containsText" dxfId="28" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4108,29 +4230,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="26" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
+  <conditionalFormatting sqref="K45">
+    <cfRule type="containsText" dxfId="27" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4142,29 +4247,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="24" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="23" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="J46">
+    <cfRule type="containsText" dxfId="26" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsText" dxfId="24" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4176,12 +4298,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="22" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="23" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4193,12 +4315,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="22" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
     <cfRule type="containsText" dxfId="21" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4210,80 +4349,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="20" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="19" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="18" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="17" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="16" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4295,29 +4383,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4329,12 +4434,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4346,12 +4451,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
+  <conditionalFormatting sqref="K52">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4363,12 +4485,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
+  <conditionalFormatting sqref="J51">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4380,12 +4502,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
+  <conditionalFormatting sqref="J52">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4397,12 +4519,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="J53">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4414,29 +4553,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
+  <conditionalFormatting sqref="K54">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K54))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4448,29 +4570,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
+  <conditionalFormatting sqref="K55">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4483,7 +4588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4499,12 +4604,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K54))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+  <conditionalFormatting sqref="J55">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849BC33-B5D9-49C2-8124-D243999F65CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF788BA-75DA-45E2-94A6-3AFF9453DBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="103">
   <si>
     <t>Year</t>
   </si>
@@ -747,7 +747,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="72">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -788,6 +788,22 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1585,13 +1601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3504,7 +3520,53 @@
         <v>4</v>
       </c>
       <c r="L55" s="9" t="str">
-        <f t="shared" ref="L55" si="12">IF(OR(AND(J55&gt;1,J55&lt;&gt;"-"),AND(K55&gt;1,K55&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L55:L56" si="12">IF(OR(AND(J55&gt;1,J55&lt;&gt;"-"),AND(K55&gt;1,K55&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" s="21"/>
+      <c r="K56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="21"/>
+      <c r="K57" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="9" t="str">
+        <f t="shared" ref="L57" si="13">IF(OR(AND(J57&gt;1,J57&lt;&gt;"-"),AND(K57&gt;1,K57&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3517,11 +3579,28 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
-    <cfRule type="containsText" dxfId="69" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="70" priority="179" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3533,12 +3612,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="68" priority="171" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="69" priority="177" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="containsText" dxfId="68" priority="175" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="67" priority="173" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="66" priority="171" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3550,12 +3680,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="67" priority="169" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="65" priority="169" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3567,12 +3697,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="66" priority="167" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="64" priority="167" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3584,12 +3714,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="65" priority="165" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="63" priority="165" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3601,12 +3731,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="64" priority="163" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="62" priority="163" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3618,12 +3748,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="63" priority="161" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="61" priority="161" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3635,12 +3765,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="62" priority="159" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="60" priority="159" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3652,12 +3782,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="61" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="59" priority="157" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3669,12 +3799,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="60" priority="155" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="58" priority="155" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3686,12 +3816,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="59" priority="153" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="57" priority="153" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3703,12 +3833,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="58" priority="151" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="56" priority="151" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3720,12 +3850,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="57" priority="149" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="55" priority="149" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3737,12 +3867,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="56" priority="147" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="54" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3754,12 +3884,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="55" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="53" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3771,12 +3901,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="54" priority="143" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="52" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3788,12 +3918,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="53" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="51" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3805,12 +3935,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="52" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="containsText" dxfId="50" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3822,12 +3952,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="51" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="49" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3839,12 +3969,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="50" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="48" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3856,12 +3986,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="49" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="47" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3873,12 +4003,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="48" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="K30">
+    <cfRule type="containsText" dxfId="46" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3890,12 +4020,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="47" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="45" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3907,12 +4037,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="46" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="K32">
+    <cfRule type="containsText" dxfId="44" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3924,12 +4054,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="45" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="43" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3941,12 +4071,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="44" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="K34">
+    <cfRule type="containsText" dxfId="42" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3958,12 +4088,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="43" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="41" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3975,12 +4105,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="42" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="J38:K38">
+    <cfRule type="containsText" dxfId="40" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3992,46 +4122,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="41" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="40" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="J40">
     <cfRule type="containsText" dxfId="39" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4043,12 +4139,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
+  <conditionalFormatting sqref="K40">
     <cfRule type="containsText" dxfId="38" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4060,12 +4156,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="37" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+  <conditionalFormatting sqref="J43">
+    <cfRule type="containsText" dxfId="37" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="containsText" dxfId="36" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="containsText" dxfId="35" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4077,29 +4207,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="36" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="35" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
+  <conditionalFormatting sqref="J42">
+    <cfRule type="containsText" dxfId="34" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4111,29 +4224,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="34" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
+  <conditionalFormatting sqref="K41">
     <cfRule type="containsText" dxfId="33" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4145,12 +4241,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="32" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+  <conditionalFormatting sqref="K42">
+    <cfRule type="containsText" dxfId="32" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4162,12 +4275,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="31" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
+  <conditionalFormatting sqref="K44">
+    <cfRule type="containsText" dxfId="30" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4179,29 +4292,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="30" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
+  <conditionalFormatting sqref="K45">
     <cfRule type="containsText" dxfId="29" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4213,29 +4309,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="28" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="27" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="J46">
+    <cfRule type="containsText" dxfId="28" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="27" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsText" dxfId="26" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4247,12 +4360,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="26" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="25" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4264,12 +4377,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="24" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="containsText" dxfId="23" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4281,80 +4411,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="24" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="23" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="22" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="21" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4366,29 +4445,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J49">
+    <cfRule type="containsText" dxfId="20" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="containsText" dxfId="19" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
     <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4400,12 +4496,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="K50">
     <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4417,12 +4513,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
+  <conditionalFormatting sqref="K52">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4434,12 +4547,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
+  <conditionalFormatting sqref="J51">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4451,12 +4564,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
+  <conditionalFormatting sqref="J52">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4468,12 +4581,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="J53">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4485,29 +4615,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
+  <conditionalFormatting sqref="K54">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K54))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4519,29 +4632,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
+  <conditionalFormatting sqref="K55">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4553,12 +4649,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+  <conditionalFormatting sqref="J54">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J54))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K54))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4570,12 +4683,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+  <conditionalFormatting sqref="K56">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K56))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57">
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K55))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4587,12 +4717,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
+  <conditionalFormatting sqref="J56">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J54))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J56))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4604,12 +4734,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+  <conditionalFormatting sqref="J57">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J55))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF788BA-75DA-45E2-94A6-3AFF9453DBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBAA3C2-475B-4BAE-92AB-31A09F93C4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -304,9 +307,6 @@
     <t>Obv: Mint director Symbol - Sailboat</t>
   </si>
   <si>
-    <t>Subtype_5</t>
-  </si>
-  <si>
     <t>Obv: With mint letter "F" in star</t>
   </si>
   <si>
@@ -391,12 +391,6 @@
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol_B</t>
-  </si>
-  <si>
-    <t>Subtype_2#Mint_Symbol_A</t>
-  </si>
-  <si>
     <t>10 Years of EMU</t>
   </si>
   <si>
@@ -419,6 +413,15 @@
   </si>
   <si>
     <t>90.000</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_4#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_5#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -717,6 +720,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,38 +755,6 @@
   </cellStyles>
   <dxfs count="72">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -788,6 +762,38 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1330,9 +1336,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1604,68 +1610,64 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="39.1796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="28" style="11" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" style="11" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" style="11" customWidth="1"/>
-    <col min="10" max="11" width="3.81640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="11" customWidth="1"/>
+    <col min="3" max="7" width="33.6328125" style="11" customWidth="1"/>
+    <col min="8" max="9" width="12.6328125" style="11" customWidth="1"/>
+    <col min="10" max="11" width="3.6328125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" style="11" customWidth="1"/>
     <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="26" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="29"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="C2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>20</v>
@@ -1689,7 +1691,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>49</v>
@@ -1759,7 +1761,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>50</v>
@@ -1794,7 +1796,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>50</v>
@@ -1831,7 +1833,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>50</v>
@@ -1866,7 +1868,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>49</v>
@@ -1898,7 +1900,7 @@
         <v>2012</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>26</v>
@@ -2101,7 +2103,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>50</v>
@@ -2136,7 +2138,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>49</v>
@@ -2237,7 +2239,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>50</v>
@@ -2272,7 +2274,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>49</v>
@@ -2345,7 +2347,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>62</v>
@@ -2386,7 +2388,7 @@
         <v>62</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="13" t="s">
@@ -2414,7 +2416,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>50</v>
@@ -2449,7 +2451,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>51</v>
@@ -2522,7 +2524,7 @@
         <v>36</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>62</v>
@@ -2563,7 +2565,7 @@
         <v>62</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="10" t="s">
@@ -2591,7 +2593,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>50</v>
@@ -2626,7 +2628,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>51</v>
@@ -2635,7 +2637,7 @@
         <v>62</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="10" t="s">
@@ -2701,7 +2703,7 @@
         <v>36</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>62</v>
@@ -2730,7 +2732,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>50</v>
@@ -2765,7 +2767,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>51</v>
@@ -2835,7 +2837,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>62</v>
@@ -2876,7 +2878,7 @@
         <v>62</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="10" t="s">
@@ -2904,7 +2906,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>50</v>
@@ -2939,7 +2941,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>51</v>
@@ -2948,7 +2950,7 @@
         <v>62</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="10" t="s">
@@ -2973,7 +2975,7 @@
         <v>2020</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>36</v>
@@ -2990,7 +2992,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>4</v>
@@ -3008,7 +3010,7 @@
         <v>2020</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>36</v>
@@ -3020,7 +3022,7 @@
         <v>62</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="10" t="s">
@@ -3045,13 +3047,13 @@
         <v>2020</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>62</v>
@@ -3062,7 +3064,7 @@
         <v>4</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>4</v>
@@ -3080,10 +3082,10 @@
         <v>2020</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>50</v>
@@ -3097,7 +3099,7 @@
         <v>4</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>4</v>
@@ -3115,10 +3117,10 @@
         <v>2020</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>51</v>
@@ -3127,7 +3129,7 @@
         <v>62</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="10" t="s">
@@ -3152,7 +3154,7 @@
         <v>2021</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
@@ -3162,14 +3164,14 @@
         <v>62</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J45" s="22">
         <v>1</v>
@@ -3187,7 +3189,7 @@
         <v>2021</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>36</v>
@@ -3204,7 +3206,7 @@
         <v>4</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>4</v>
@@ -3222,7 +3224,7 @@
         <v>2021</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>36</v>
@@ -3234,7 +3236,7 @@
         <v>62</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="10" t="s">
@@ -3259,13 +3261,13 @@
         <v>2021</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>62</v>
@@ -3276,7 +3278,7 @@
         <v>4</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>4</v>
@@ -3294,10 +3296,10 @@
         <v>2022</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>50</v>
@@ -3308,7 +3310,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>4</v>
@@ -3329,7 +3331,7 @@
         <v>2022</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>36</v>
@@ -3343,7 +3345,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>4</v>
@@ -3364,7 +3366,7 @@
         <v>2022</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
@@ -3376,7 +3378,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>4</v>
@@ -3397,7 +3399,7 @@
         <v>2023</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
@@ -3409,7 +3411,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>4</v>
@@ -3430,7 +3432,7 @@
         <v>2023</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
@@ -3442,7 +3444,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>4</v>
@@ -3463,7 +3465,7 @@
         <v>2024</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
@@ -3475,7 +3477,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>4</v>
@@ -3496,7 +3498,7 @@
         <v>2024</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
@@ -3508,7 +3510,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>4</v>
@@ -3571,9 +3573,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="C1:G1"/>
@@ -3583,7 +3585,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
     <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4684,7 +4686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4701,7 +4703,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4718,7 +4720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4735,7 +4737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J57))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBAA3C2-475B-4BAE-92AB-31A09F93C4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9733CF-2465-4389-B8ED-64437D0719B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$I$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="109">
   <si>
     <t>Year</t>
   </si>
@@ -406,9 +406,6 @@
     <t>The Maltese Honey Bee</t>
   </si>
   <si>
-    <t>Maltese Walled Cities - Citadel Gozo</t>
-  </si>
-  <si>
     <t>80.000</t>
   </si>
   <si>
@@ -422,6 +419,27 @@
   </si>
   <si>
     <t>Subtype_5#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Maltese Ox</t>
+  </si>
+  <si>
+    <t>Historic City of Mdina</t>
+  </si>
+  <si>
+    <t>Maltese Walled Cities</t>
+  </si>
+  <si>
+    <t>Citadel Gozo</t>
+  </si>
+  <si>
+    <t>Maltese Native Species</t>
+  </si>
+  <si>
+    <t>140.000</t>
+  </si>
+  <si>
+    <t>147.000</t>
   </si>
 </sst>
 </file>
@@ -753,7 +771,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="74">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1336,9 +1370,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1610,10 +1644,10 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="J53" sqref="B52:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1658,16 +1692,16 @@
         <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>20</v>
@@ -3467,7 +3501,9 @@
       <c r="B54" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D54" s="7" t="s">
         <v>50</v>
       </c>
@@ -3477,7 +3513,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>4</v>
@@ -3498,9 +3534,11 @@
         <v>2024</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="D55" s="7" t="s">
         <v>50</v>
       </c>
@@ -3510,7 +3548,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>4</v>
@@ -3530,17 +3568,29 @@
       <c r="A56" s="5">
         <v>2025</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="B56" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="13"/>
+      <c r="H56" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="I56" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J56" s="21"/>
+      <c r="J56" s="22">
+        <v>1</v>
+      </c>
       <c r="K56" s="8" t="s">
         <v>4</v>
       </c>
@@ -3553,17 +3603,29 @@
       <c r="A57" s="5">
         <v>2025</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="B57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="13"/>
+      <c r="H57" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="I57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="21"/>
+      <c r="J57" s="22">
+        <v>1</v>
+      </c>
       <c r="K57" s="8" t="s">
         <v>4</v>
       </c>
@@ -3573,7 +3635,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:I57" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="H1:I1"/>
@@ -3581,12 +3643,12 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
-    <cfRule type="containsText" dxfId="71" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="191" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J5 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
-    <cfRule type="colorScale" priority="188">
+  <conditionalFormatting sqref="J5 J3 J7 K3:K7 J9:K10 J12:K12 J19:K19 J21:K21 J24:K24 J26:K26 J29:K29 J31:K31 J33:K33 J35:K35 J39:K39 J14:K15 J17:K17 J37:K37 J36">
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3598,11 +3660,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="72" priority="183" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="71" priority="181" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="containsText" dxfId="70" priority="179" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3614,12 +3710,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J8">
     <cfRule type="containsText" dxfId="69" priority="177" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3631,12 +3727,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="K11">
     <cfRule type="containsText" dxfId="68" priority="175" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
     <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3648,12 +3744,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J11">
     <cfRule type="containsText" dxfId="67" priority="173" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3665,12 +3761,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="K13">
     <cfRule type="containsText" dxfId="66" priority="171" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3682,12 +3778,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J13">
     <cfRule type="containsText" dxfId="65" priority="169" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3699,12 +3795,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="K18">
     <cfRule type="containsText" dxfId="64" priority="167" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3716,12 +3812,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J18">
     <cfRule type="containsText" dxfId="63" priority="165" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3733,12 +3829,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+  <conditionalFormatting sqref="K16">
     <cfRule type="containsText" dxfId="62" priority="163" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3750,12 +3846,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J16">
     <cfRule type="containsText" dxfId="61" priority="161" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3767,12 +3863,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K20">
     <cfRule type="containsText" dxfId="60" priority="159" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3784,12 +3880,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J20">
     <cfRule type="containsText" dxfId="59" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3801,12 +3897,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="K22">
     <cfRule type="containsText" dxfId="58" priority="155" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3818,12 +3914,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J22">
     <cfRule type="containsText" dxfId="57" priority="153" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3835,12 +3931,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="K23">
     <cfRule type="containsText" dxfId="56" priority="151" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3852,12 +3948,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J23">
     <cfRule type="containsText" dxfId="55" priority="149" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3869,12 +3965,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="K25">
     <cfRule type="containsText" dxfId="54" priority="147" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3886,12 +3982,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J25">
     <cfRule type="containsText" dxfId="53" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3903,12 +3999,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="52" priority="143" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3920,12 +4016,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="J27">
     <cfRule type="containsText" dxfId="51" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3937,12 +4033,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="50" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3954,12 +4050,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J28">
     <cfRule type="containsText" dxfId="49" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3971,12 +4067,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="K30">
     <cfRule type="containsText" dxfId="48" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3988,12 +4084,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="J30">
     <cfRule type="containsText" dxfId="47" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4005,12 +4101,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="K32">
     <cfRule type="containsText" dxfId="46" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4022,12 +4118,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="J32">
     <cfRule type="containsText" dxfId="45" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4039,12 +4135,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="K34">
     <cfRule type="containsText" dxfId="44" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4056,12 +4152,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="J34">
     <cfRule type="containsText" dxfId="43" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4073,12 +4169,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="containsText" dxfId="42" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4090,46 +4186,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="41" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsText" dxfId="40" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J40">
+    <cfRule type="containsText" dxfId="41" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="containsText" dxfId="40" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
     <cfRule type="containsText" dxfId="39" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4141,12 +4237,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
+  <conditionalFormatting sqref="K43">
     <cfRule type="containsText" dxfId="38" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4158,12 +4254,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
+  <conditionalFormatting sqref="J41">
     <cfRule type="containsText" dxfId="37" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4175,29 +4271,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="36" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="35" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
+  <conditionalFormatting sqref="J42">
+    <cfRule type="containsText" dxfId="36" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4209,12 +4288,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="34" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+  <conditionalFormatting sqref="K41">
+    <cfRule type="containsText" dxfId="35" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4226,12 +4305,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
+  <conditionalFormatting sqref="K42">
+    <cfRule type="containsText" dxfId="34" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="containsText" dxfId="33" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4243,29 +4339,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="32" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
+  <conditionalFormatting sqref="K44">
+    <cfRule type="containsText" dxfId="32" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4277,12 +4356,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="30" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
+  <conditionalFormatting sqref="K45">
+    <cfRule type="containsText" dxfId="31" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4294,29 +4373,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="29" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="28" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="29" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4328,12 +4407,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsText" dxfId="28" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
     <cfRule type="containsText" dxfId="27" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4345,12 +4441,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
+  <conditionalFormatting sqref="K48">
     <cfRule type="containsText" dxfId="26" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4362,12 +4458,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="K46">
     <cfRule type="containsText" dxfId="25" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4379,47 +4475,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="24" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="23" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="22" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4431,11 +4493,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K53))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="containsText" dxfId="22" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4447,30 +4526,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="20" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="19" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4482,11 +4544,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
     <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4498,29 +4594,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4532,12 +4611,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="J51">
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
     <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4549,12 +4645,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
+  <conditionalFormatting sqref="J53">
     <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J51))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4566,12 +4662,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
+  <conditionalFormatting sqref="J45">
     <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4583,29 +4679,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
+  <conditionalFormatting sqref="K54">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K54))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4617,12 +4696,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K54))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+  <conditionalFormatting sqref="K55">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4634,12 +4713,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+  <conditionalFormatting sqref="J54">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J54))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K55))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4651,12 +4747,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
+  <conditionalFormatting sqref="K56">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J54))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K56))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4668,12 +4764,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+  <conditionalFormatting sqref="K57">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J55))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4685,42 +4781,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K56))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K57))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4737,7 +4799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4764,7 +4826,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
